--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H2">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I2">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J2">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N2">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O2">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P2">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q2">
-        <v>27.88150620114375</v>
+        <v>31.4897280545925</v>
       </c>
       <c r="R2">
-        <v>111.526024804575</v>
+        <v>125.95891221837</v>
       </c>
       <c r="S2">
-        <v>0.002680496125124067</v>
+        <v>0.000754022031703221</v>
       </c>
       <c r="T2">
-        <v>0.001258079512310216</v>
+        <v>0.0003464785286605168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H3">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I3">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J3">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N3">
         <v>26.648703</v>
       </c>
       <c r="O3">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P3">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q3">
-        <v>13.1807816125875</v>
+        <v>12.9275656366815</v>
       </c>
       <c r="R3">
-        <v>79.08468967552501</v>
+        <v>77.565393820089</v>
       </c>
       <c r="S3">
-        <v>0.001267185272695132</v>
+        <v>0.0003095507617419934</v>
       </c>
       <c r="T3">
-        <v>0.0008921220674056323</v>
+        <v>0.0002133611909823919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H4">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I4">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J4">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N4">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O4">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P4">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q4">
-        <v>144.6562804596375</v>
+        <v>150.554701484838</v>
       </c>
       <c r="R4">
-        <v>867.937682757825</v>
+        <v>903.328208909028</v>
       </c>
       <c r="S4">
-        <v>0.01390708939644776</v>
+        <v>0.003605034686208203</v>
       </c>
       <c r="T4">
-        <v>0.009790850328907539</v>
+        <v>0.002484808920687821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H5">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I5">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J5">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N5">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O5">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P5">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q5">
-        <v>7.16546983546875</v>
+        <v>10.78951702772475</v>
       </c>
       <c r="R5">
-        <v>28.661879341875</v>
+        <v>43.158068110899</v>
       </c>
       <c r="S5">
-        <v>0.0006888800766394557</v>
+        <v>0.0002583551542978479</v>
       </c>
       <c r="T5">
-        <v>0.0003233229485898537</v>
+        <v>0.0001187160453797079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H6">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I6">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J6">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N6">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O6">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P6">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q6">
-        <v>19.9445877655875</v>
+        <v>251.086069496976</v>
       </c>
       <c r="R6">
-        <v>119.667526593525</v>
+        <v>1506.516416981856</v>
       </c>
       <c r="S6">
-        <v>0.001917449862183596</v>
+        <v>0.006012259868559731</v>
       </c>
       <c r="T6">
-        <v>0.001349920467083445</v>
+        <v>0.004144014761368045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.4838375</v>
+        <v>1.4553315</v>
       </c>
       <c r="H7">
-        <v>2.967675</v>
+        <v>2.910663</v>
       </c>
       <c r="I7">
-        <v>0.03456909213758164</v>
+        <v>0.01405135674371917</v>
       </c>
       <c r="J7">
-        <v>0.02354658441407369</v>
+        <v>0.009452451436126601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N7">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O7">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P7">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q7">
-        <v>146.74598711155</v>
+        <v>129.970023161874</v>
       </c>
       <c r="R7">
-        <v>880.4759226693001</v>
+        <v>779.820138971244</v>
       </c>
       <c r="S7">
-        <v>0.01410799140449163</v>
+        <v>0.003112134241208172</v>
       </c>
       <c r="T7">
-        <v>0.009932289089777009</v>
+        <v>0.002145071989048119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I8">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J8">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N8">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O8">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P8">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q8">
-        <v>58.14087886974983</v>
+        <v>66.95124911638167</v>
       </c>
       <c r="R8">
-        <v>348.845273218499</v>
+        <v>401.70749469829</v>
       </c>
       <c r="S8">
-        <v>0.005589597613463187</v>
+        <v>0.001603148709200749</v>
       </c>
       <c r="T8">
-        <v>0.003935180976561175</v>
+        <v>0.00110498748571018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I9">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J9">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N9">
         <v>26.648703</v>
       </c>
       <c r="O9">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P9">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q9">
-        <v>27.48568250285701</v>
+        <v>27.485682502857</v>
       </c>
       <c r="R9">
-        <v>247.3711425257131</v>
+        <v>247.371142525713</v>
       </c>
       <c r="S9">
-        <v>0.002642442087374615</v>
+        <v>0.0006581450982245424</v>
       </c>
       <c r="T9">
-        <v>0.002790492774163717</v>
+        <v>0.0006804503785074779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I10">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J10">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N10">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O10">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P10">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q10">
-        <v>301.6495313874877</v>
+        <v>320.098836905764</v>
       </c>
       <c r="R10">
-        <v>2714.845782487389</v>
+        <v>2880.889532151876</v>
       </c>
       <c r="S10">
-        <v>0.02900024102702466</v>
+        <v>0.007664771665575617</v>
       </c>
       <c r="T10">
-        <v>0.03062506588945571</v>
+        <v>0.007924539429198825</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I11">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J11">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N11">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O11">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P11">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q11">
-        <v>14.94204476412917</v>
+        <v>22.93991364791383</v>
       </c>
       <c r="R11">
-        <v>89.652268584775</v>
+        <v>137.639481887483</v>
       </c>
       <c r="S11">
-        <v>0.001436511098171431</v>
+        <v>0.0005492965917618903</v>
       </c>
       <c r="T11">
-        <v>0.001011330606791352</v>
+        <v>0.0003786085821961864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I12">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J12">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N12">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O12">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P12">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q12">
-        <v>41.590144127097</v>
+        <v>533.8415739698167</v>
       </c>
       <c r="R12">
-        <v>374.311297143873</v>
+        <v>4804.574165728352</v>
       </c>
       <c r="S12">
-        <v>0.003998428900209909</v>
+        <v>0.01278284485386851</v>
       </c>
       <c r="T12">
-        <v>0.004222452786137952</v>
+        <v>0.01321606989504559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.282671000000001</v>
       </c>
       <c r="I13">
-        <v>0.07208639964098879</v>
+        <v>0.02987500826113646</v>
       </c>
       <c r="J13">
-        <v>0.07365199905298724</v>
+        <v>0.03014570797960491</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N13">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O13">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P13">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q13">
-        <v>306.0071647393463</v>
+        <v>276.3331389615942</v>
       </c>
       <c r="R13">
-        <v>2754.064482654117</v>
+        <v>2486.998250654348</v>
       </c>
       <c r="S13">
-        <v>0.02941917891474498</v>
+        <v>0.006616801342505151</v>
       </c>
       <c r="T13">
-        <v>0.03106747601987733</v>
+        <v>0.006841052208946654</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H14">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I14">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J14">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N14">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O14">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P14">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q14">
-        <v>352.2812309497908</v>
+        <v>488.8776990674683</v>
       </c>
       <c r="R14">
-        <v>2113.687385698745</v>
+        <v>2933.26619440481</v>
       </c>
       <c r="S14">
-        <v>0.03386791472822635</v>
+        <v>0.01170618416475933</v>
       </c>
       <c r="T14">
-        <v>0.02384364367003824</v>
+        <v>0.008068613306576267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H15">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I15">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J15">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N15">
         <v>26.648703</v>
       </c>
       <c r="O15">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P15">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q15">
-        <v>166.5384193330351</v>
+        <v>200.700321452373</v>
       </c>
       <c r="R15">
-        <v>1498.845773997315</v>
+        <v>1806.302893071357</v>
       </c>
       <c r="S15">
-        <v>0.01601081320664717</v>
+        <v>0.004805772342099897</v>
       </c>
       <c r="T15">
-        <v>0.01690786669463912</v>
+        <v>0.00496864539145587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H16">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I16">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J16">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N16">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O16">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P16">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q16">
-        <v>1827.723802914522</v>
+        <v>2337.360167674196</v>
       </c>
       <c r="R16">
-        <v>16449.51422623069</v>
+        <v>21036.24150906776</v>
       </c>
       <c r="S16">
-        <v>0.175715276504984</v>
+        <v>0.05596812584079604</v>
       </c>
       <c r="T16">
-        <v>0.1855602481280883</v>
+        <v>0.05786494880150378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H17">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I17">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J17">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N17">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O17">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P17">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q17">
-        <v>90.53530020085417</v>
+        <v>167.5071391349811</v>
       </c>
       <c r="R17">
-        <v>543.211801205125</v>
+        <v>1005.042834809887</v>
       </c>
       <c r="S17">
-        <v>0.008703960238897661</v>
+        <v>0.004010961071381252</v>
       </c>
       <c r="T17">
-        <v>0.00612775035368483</v>
+        <v>0.002764598046401189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H18">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I18">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J18">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N18">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O18">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P18">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q18">
-        <v>251.998721954235</v>
+        <v>3898.108605789435</v>
       </c>
       <c r="R18">
-        <v>2267.988497588115</v>
+        <v>35082.97745210492</v>
       </c>
       <c r="S18">
-        <v>0.02422686898123296</v>
+        <v>0.09334027164799523</v>
       </c>
       <c r="T18">
-        <v>0.0255842514603263</v>
+        <v>0.0965036788152147</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.74820166666667</v>
+        <v>22.59400633333333</v>
       </c>
       <c r="H19">
-        <v>56.244605</v>
+        <v>67.78201899999999</v>
       </c>
       <c r="I19">
-        <v>0.4367784955084109</v>
+        <v>0.2181471666486411</v>
       </c>
       <c r="J19">
-        <v>0.4462646143761468</v>
+        <v>0.2201238146910551</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N19">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O19">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P19">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q19">
-        <v>1854.127126549509</v>
+        <v>2017.783251762819</v>
       </c>
       <c r="R19">
-        <v>16687.14413894558</v>
+        <v>18160.04926586537</v>
       </c>
       <c r="S19">
-        <v>0.1782536618484227</v>
+        <v>0.04831585158160939</v>
       </c>
       <c r="T19">
-        <v>0.1882408540693699</v>
+        <v>0.04995333032990332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H20">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I20">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J20">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N20">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O20">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P20">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q20">
-        <v>23.55193978005725</v>
+        <v>28.8820853446675</v>
       </c>
       <c r="R20">
-        <v>94.20775912022899</v>
+        <v>115.52834137867</v>
       </c>
       <c r="S20">
-        <v>0.002264256560035091</v>
+        <v>0.0006915819861529712</v>
       </c>
       <c r="T20">
-        <v>0.00106271923398595</v>
+        <v>0.0003177868801381547</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H21">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I21">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J21">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N21">
         <v>26.648703</v>
       </c>
       <c r="O21">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P21">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q21">
-        <v>11.1340102128705</v>
+        <v>11.8570428226665</v>
       </c>
       <c r="R21">
-        <v>66.804061277223</v>
+        <v>71.142256935999</v>
       </c>
       <c r="S21">
-        <v>0.001070411010703105</v>
+        <v>0.0002839170761855849</v>
       </c>
       <c r="T21">
-        <v>0.0007535893167470166</v>
+        <v>0.0001956928975858407</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H22">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I22">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J22">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N22">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O22">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P22">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q22">
-        <v>122.1933987932365</v>
+        <v>138.087370262058</v>
       </c>
       <c r="R22">
-        <v>733.160392759419</v>
+        <v>828.5242215723481</v>
       </c>
       <c r="S22">
-        <v>0.0117475336381782</v>
+        <v>0.003306504244718837</v>
       </c>
       <c r="T22">
-        <v>0.008270482795241696</v>
+        <v>0.002279043603935801</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H23">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I23">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J23">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N23">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O23">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P23">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q23">
-        <v>6.052783262256249</v>
+        <v>9.896044547677251</v>
       </c>
       <c r="R23">
-        <v>24.211133049025</v>
+        <v>39.584178190709</v>
       </c>
       <c r="S23">
-        <v>0.0005819076617900982</v>
+        <v>0.0002369609417626247</v>
       </c>
       <c r="T23">
-        <v>0.0002731158983938394</v>
+        <v>0.0001088852513585962</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H24">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I24">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J24">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N24">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O24">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P24">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q24">
-        <v>16.8475019464305</v>
+        <v>230.2938048717493</v>
       </c>
       <c r="R24">
-        <v>101.085011678583</v>
+        <v>1381.762829230496</v>
       </c>
       <c r="S24">
-        <v>0.001619699572886582</v>
+        <v>0.005514388766299197</v>
       </c>
       <c r="T24">
-        <v>0.001140298709806137</v>
+        <v>0.003800851750764433</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.2534205</v>
+        <v>1.3348165</v>
       </c>
       <c r="H25">
-        <v>2.506841</v>
+        <v>2.669633</v>
       </c>
       <c r="I25">
-        <v>0.02920104711710928</v>
+        <v>0.01288777356148934</v>
       </c>
       <c r="J25">
-        <v>0.01989016425961768</v>
+        <v>0.008669700437591356</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N25">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O25">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P25">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q25">
-        <v>123.9586063422393</v>
+        <v>119.2072949852673</v>
       </c>
       <c r="R25">
-        <v>743.751638053436</v>
+        <v>715.243769911604</v>
       </c>
       <c r="S25">
-        <v>0.0119172386735162</v>
+        <v>0.002854420546370122</v>
       </c>
       <c r="T25">
-        <v>0.008389958305443044</v>
+        <v>0.00196744005380853</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H26">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I26">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J26">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N26">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O26">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P26">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q26">
-        <v>20.31900005697067</v>
+        <v>1326.185170182162</v>
       </c>
       <c r="R26">
-        <v>121.914000341824</v>
+        <v>7957.11102109297</v>
       </c>
       <c r="S26">
-        <v>0.001953445431756169</v>
+        <v>0.03175552468099509</v>
       </c>
       <c r="T26">
-        <v>0.001375262019448734</v>
+        <v>0.02188783683838924</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H27">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I27">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J27">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N27">
         <v>26.648703</v>
       </c>
       <c r="O27">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P27">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q27">
-        <v>9.605661200832001</v>
+        <v>544.442486267301</v>
       </c>
       <c r="R27">
-        <v>86.45095080748801</v>
+        <v>4899.982376405709</v>
       </c>
       <c r="S27">
-        <v>0.0009234772842734209</v>
+        <v>0.01303668386494536</v>
       </c>
       <c r="T27">
-        <v>0.0009752178491183643</v>
+        <v>0.01347851179673742</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H28">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I28">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J28">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N28">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O28">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P28">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q28">
-        <v>105.4200927918293</v>
+        <v>6340.588653679251</v>
       </c>
       <c r="R28">
-        <v>948.780835126464</v>
+        <v>57065.29788311326</v>
       </c>
       <c r="S28">
-        <v>0.01013496717860695</v>
+        <v>0.151825494667756</v>
       </c>
       <c r="T28">
-        <v>0.01070280889538363</v>
+        <v>0.1569710320603391</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H29">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I29">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J29">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N29">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O29">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P29">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q29">
-        <v>5.221926711733333</v>
+        <v>454.3988900377199</v>
       </c>
       <c r="R29">
-        <v>31.3315602704</v>
+        <v>2726.393340226319</v>
       </c>
       <c r="S29">
-        <v>0.0005020300630641275</v>
+        <v>0.01088058854226786</v>
       </c>
       <c r="T29">
-        <v>0.0003534385282177293</v>
+        <v>0.007499562646538002</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H30">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I30">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J30">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N30">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O30">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P30">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q30">
-        <v>14.534870427072</v>
+        <v>10574.45212702159</v>
       </c>
       <c r="R30">
-        <v>130.813833843648</v>
+        <v>95170.06914319431</v>
       </c>
       <c r="S30">
-        <v>0.001397365822989457</v>
+        <v>0.2532054218804986</v>
       </c>
       <c r="T30">
-        <v>0.001475657404393518</v>
+        <v>0.2617868394424305</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.081365333333333</v>
+        <v>61.29106766666666</v>
       </c>
       <c r="H31">
-        <v>3.244096</v>
+        <v>183.873203</v>
       </c>
       <c r="I31">
-        <v>0.02519266283699305</v>
+        <v>0.5917707800509812</v>
       </c>
       <c r="J31">
-        <v>0.02573980651902881</v>
+        <v>0.5971328600262373</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N31">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O31">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P31">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q31">
-        <v>106.9429929276018</v>
+        <v>5473.668016017417</v>
       </c>
       <c r="R31">
-        <v>962.4869363484161</v>
+        <v>49263.01214415676</v>
       </c>
       <c r="S31">
-        <v>0.01028137705630293</v>
+        <v>0.1310670664145182</v>
       </c>
       <c r="T31">
-        <v>0.01085742182246682</v>
+        <v>0.1355090772418032</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>17.26277166666667</v>
+        <v>13.802866</v>
       </c>
       <c r="H32">
-        <v>51.788315</v>
+        <v>41.408598</v>
       </c>
       <c r="I32">
-        <v>0.4021723027589164</v>
+        <v>0.1332679147340328</v>
       </c>
       <c r="J32">
-        <v>0.4109068313781458</v>
+        <v>0.1344754654293847</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>18.7901345</v>
+        <v>21.637495</v>
       </c>
       <c r="N32">
-        <v>37.580269</v>
+        <v>43.27499</v>
       </c>
       <c r="O32">
-        <v>0.07754025227090003</v>
+        <v>0.05366186664076138</v>
       </c>
       <c r="P32">
-        <v>0.05342938449953136</v>
+        <v>0.03665488587820726</v>
       </c>
       <c r="Q32">
-        <v>324.3698014594558</v>
+        <v>298.65944406067</v>
       </c>
       <c r="R32">
-        <v>1946.218808756735</v>
+        <v>1791.95666436402</v>
       </c>
       <c r="S32">
-        <v>0.03118454181229516</v>
+        <v>0.007151405067950026</v>
       </c>
       <c r="T32">
-        <v>0.02195449908718705</v>
+        <v>0.004929182838732901</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.26277166666667</v>
+        <v>13.802866</v>
       </c>
       <c r="H33">
-        <v>51.788315</v>
+        <v>41.408598</v>
       </c>
       <c r="I33">
-        <v>0.4021723027589164</v>
+        <v>0.1332679147340328</v>
       </c>
       <c r="J33">
-        <v>0.4109068313781458</v>
+        <v>0.1344754654293847</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.882901000000002</v>
+        <v>8.882901</v>
       </c>
       <c r="N33">
         <v>26.648703</v>
       </c>
       <c r="O33">
-        <v>0.03665659681347307</v>
+        <v>0.02202995535504853</v>
       </c>
       <c r="P33">
-        <v>0.03788753611638105</v>
+        <v>0.02257204836482318</v>
       </c>
       <c r="Q33">
-        <v>153.343491700605</v>
+        <v>122.609492194266</v>
       </c>
       <c r="R33">
-        <v>1380.091425305445</v>
+        <v>1103.485429748394</v>
       </c>
       <c r="S33">
-        <v>0.01474226795177962</v>
+        <v>0.002935886211851157</v>
       </c>
       <c r="T33">
-        <v>0.0155682474143072</v>
+        <v>0.003035386709554178</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.26277166666667</v>
+        <v>13.802866</v>
       </c>
       <c r="H34">
-        <v>51.788315</v>
+        <v>41.408598</v>
       </c>
       <c r="I34">
-        <v>0.4021723027589164</v>
+        <v>0.1332679147340328</v>
       </c>
       <c r="J34">
-        <v>0.4109068313781458</v>
+        <v>0.1344754654293847</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.487953</v>
+        <v>103.450452</v>
       </c>
       <c r="N34">
-        <v>292.463859</v>
+        <v>310.351356</v>
       </c>
       <c r="O34">
-        <v>0.4022983693381038</v>
+        <v>0.2565613237184104</v>
       </c>
       <c r="P34">
-        <v>0.4158076669096681</v>
+        <v>0.2628745503194079</v>
       </c>
       <c r="Q34">
-        <v>1682.912272889732</v>
+        <v>1427.912726595432</v>
       </c>
       <c r="R34">
-        <v>15146.21045600758</v>
+        <v>12851.21453935889</v>
       </c>
       <c r="S34">
-        <v>0.1617932615928622</v>
+        <v>0.0341913926133557</v>
       </c>
       <c r="T34">
-        <v>0.1708582108725912</v>
+        <v>0.03535017750374258</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.26277166666667</v>
+        <v>13.802866</v>
       </c>
       <c r="H35">
-        <v>51.788315</v>
+        <v>41.408598</v>
       </c>
       <c r="I35">
-        <v>0.4021723027589164</v>
+        <v>0.1332679147340328</v>
       </c>
       <c r="J35">
-        <v>0.4109068313781458</v>
+        <v>0.1344754654293847</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.8290125</v>
+        <v>7.413786500000001</v>
       </c>
       <c r="N35">
-        <v>9.658025</v>
+        <v>14.827573</v>
       </c>
       <c r="O35">
-        <v>0.01992762997355499</v>
+        <v>0.01838649171108194</v>
       </c>
       <c r="P35">
-        <v>0.01373120376629253</v>
+        <v>0.01255928646467133</v>
       </c>
       <c r="Q35">
-        <v>83.36214016297916</v>
+        <v>102.331501612109</v>
       </c>
       <c r="R35">
-        <v>500.172840977875</v>
+        <v>613.989009672654</v>
       </c>
       <c r="S35">
-        <v>0.008014340834992213</v>
+        <v>0.002450329409610469</v>
       </c>
       <c r="T35">
-        <v>0.005642245430614925</v>
+        <v>0.001688915892797648</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.26277166666667</v>
+        <v>13.802866</v>
       </c>
       <c r="H36">
-        <v>51.788315</v>
+        <v>41.408598</v>
       </c>
       <c r="I36">
-        <v>0.4021723027589164</v>
+        <v>0.1332679147340328</v>
       </c>
       <c r="J36">
-        <v>0.4109068313781458</v>
+        <v>0.1344754654293847</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>13.441221</v>
+        <v>172.5284373333333</v>
       </c>
       <c r="N36">
-        <v>40.323663</v>
+        <v>517.5853119999999</v>
       </c>
       <c r="O36">
-        <v>0.05546717439244084</v>
+        <v>0.4278775336941863</v>
       </c>
       <c r="P36">
-        <v>0.05732977842326052</v>
+        <v>0.4384063530366221</v>
       </c>
       <c r="Q36">
-        <v>232.032729044205</v>
+        <v>2381.386901701397</v>
       </c>
       <c r="R36">
-        <v>2088.294561397845</v>
+        <v>21432.48211531257</v>
       </c>
       <c r="S36">
-        <v>0.02230736125293833</v>
+        <v>0.05702234667696506</v>
       </c>
       <c r="T36">
-        <v>0.02355719759551318</v>
+        <v>0.0589548983717989</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.26277166666667</v>
+        <v>13.802866</v>
       </c>
       <c r="H37">
-        <v>51.788315</v>
+        <v>41.408598</v>
       </c>
       <c r="I37">
-        <v>0.4021723027589164</v>
+        <v>0.1332679147340328</v>
       </c>
       <c r="J37">
-        <v>0.4109068313781458</v>
+        <v>0.1344754654293847</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>98.89626533333335</v>
+        <v>89.30612933333333</v>
       </c>
       <c r="N37">
-        <v>296.688796</v>
+        <v>267.918388</v>
       </c>
       <c r="O37">
-        <v>0.4081099772115273</v>
+        <v>0.2214828288805114</v>
       </c>
       <c r="P37">
-        <v>0.4218144302848664</v>
+        <v>0.2269328759362683</v>
       </c>
       <c r="Q37">
-        <v>1707.223647135416</v>
+        <v>1232.680536166669</v>
       </c>
       <c r="R37">
-        <v>15365.01282421874</v>
+        <v>11094.12482550002</v>
       </c>
       <c r="S37">
-        <v>0.1641305293140488</v>
+        <v>0.02951655475430037</v>
       </c>
       <c r="T37">
-        <v>0.1733264309779322</v>
+        <v>0.03051690411275849</v>
       </c>
     </row>
   </sheetData>
